--- a/public/herramienta.xlsx
+++ b/public/herramienta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Documentos\Proyectos\Frontend\pry20232028\diagnostic-tool\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF48D946-2B10-4C81-8A7A-7A1868D248E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEC9BB-98E3-4307-BF5E-7092356D7F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caratula" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,7 @@
     <sheet name="Resultados" sheetId="24" r:id="rId13"/>
     <sheet name="Reportes" sheetId="21" r:id="rId14"/>
     <sheet name="Plantilla PM" sheetId="31" r:id="rId15"/>
-    <sheet name="PM1" sheetId="30" r:id="rId16"/>
-    <sheet name="Datos Velocímetro" sheetId="25" state="hidden" r:id="rId17"/>
+    <sheet name="Datos Velocímetro" sheetId="25" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1 Crear'!$B$4:$F$31</definedName>
@@ -150,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="441">
   <si>
     <t xml:space="preserve">
 </t>
@@ -1335,9 +1334,6 @@
     <t>En este apartado se plantean propuestas de mejora a partir del analisis de los resultados y reportes</t>
   </si>
   <si>
-    <t>FASE VI. ELIMINAR USUARIO</t>
-  </si>
-  <si>
     <t>Nivel de Madurez estimado</t>
   </si>
   <si>
@@ -1347,101 +1343,13 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Establecer flujo formal que permita la eliminación segura de usuarios del sistema Outlook en cumplimiento con los requisitos normativos ISO/IEC 27001:2022</t>
-  </si>
-  <si>
-    <t>Seguridad de la Información / Analista de Seguridad Informática</t>
-  </si>
-  <si>
     <t>Estado Actual</t>
   </si>
   <si>
-    <t>Actualmente en el sistema Outlook, como parte de la desvinculación de colaboradores y proveedores, unicamente revoca la licencia y se bloquea el acceso a las cuentas y sin embargo, estas aún se mantienen almacenadas en el sistema.</t>
-  </si>
-  <si>
     <t>Problemática</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En caso de re ingreso de un colaboradores o ingreso de colaboradores con nombres y apellidos iguales:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Riesgo de activación de correo Outlook donde los privilegios de la cuenta podrían restablecerse automáticamente sin una revisión adecuada.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amplia superficie de ataque:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Al existir en el sistema cuentas inactivas, existe la posibilidad de su activación para accesos no autorizados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Complicaciones en Auditorías y Revisiones:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Durante auditorías internas o revisiones de seguridad, la duplicidad de cuentas originada nombres y apellidos iguales puede dificultar la evaluación precisa de los derechos de acceso.</t>
-    </r>
-  </si>
-  <si>
     <t>Actividades a realizar</t>
-  </si>
-  <si>
-    <t>Incluir en el documento de tópico específico, el flujo de eliminación segura de usuarios, considerando:
- - Responsable operativo de eliminación de usuarios
- - Periodicidad de eliminación de usuarios
- - Sistemas aplicables
- - Proceso manual o automático
- - Ubicación de registro auditable de usuarios eliminados
- - Comunicación de usuarios que se eliminarán</t>
   </si>
   <si>
     <t>Antes</t>
@@ -2063,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2303,6 +2211,32 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2326,6 +2260,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2363,34 +2309,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2401,71 +2329,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2479,37 +2342,24 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FF873AC0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <b/>
@@ -2696,6 +2546,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF94D461"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFED2E30"/>
         </patternFill>
       </fill>
@@ -2733,6 +2595,186 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF18C1B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED2E30"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF64579C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEA352"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF94D461"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF94D461"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEA352"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF64579C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED2E30"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF94D461"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEA352"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF64579C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED2E30"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2816,7 +2858,19 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFED2E30"/>
+          <bgColor rgb="FF18C1B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEA352"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2840,7 +2894,31 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFEA352"/>
+          <bgColor rgb="FFED2E30"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED2E30"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF94D461"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2864,19 +2942,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF94D461"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED2E30"/>
+          <bgColor rgb="FFFEA352"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2889,222 +2955,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF64579C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEA352"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF94D461"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED2E30"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64579C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEA352"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF94D461"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED2E30"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64579C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEA352"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF94D461"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED2E30"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64579C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEA352"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF94D461"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3535,13 +3385,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.71664529914529906</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.243354700854701</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,331 +3399,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C8C1-4883-A445-176ED43BE14D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="270"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ED2E30"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FEA352"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="64579C"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="18C1B9"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="94D461"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Datos Velocímetro'!$C$1:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="270"/>
-        <c:holeSize val="75"/>
-      </c:doughnutChart>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Puntero</c:v>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-F6E4-44A9-9C04-BC3EEA7CD747}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Datos Velocímetro'!$C$8:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.71664529914529906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.243354700854701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-F6E4-44A9-9C04-BC3EEA7CD747}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4189,13 +3714,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.54749999999999999</c:v>
+                  <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4225000000000001</c:v>
+                  <c:v>1.9850000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,13 +4043,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.71833333333333338</c:v>
+                  <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2516666666666667</c:v>
+                  <c:v>1.9850000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4847,13 +4372,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.79315018315018304</c:v>
+                  <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1768498168498169</c:v>
+                  <c:v>1.9850000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,13 +4700,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5643650793650794</c:v>
+                  <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4056349206349206</c:v>
+                  <c:v>1.9850000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,13 +5029,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.12388888888888887</c:v>
+                  <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.846111111111111</c:v>
+                  <c:v>1.9850000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,13 +5230,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.62686567164179108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6216216216216216</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,58 +5984,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80769230769230771</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40909090909090912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57894736842105265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69230769230769229</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6947,13 +6472,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.71664529914529906</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.243354700854701</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7021,46 +6546,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7421,525 +6906,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13480,110 +12446,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>81933</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38735</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>525779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Universidad Peruana de Ciencias Aplicadas - UPC Logo PNG ...">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6749DF-A51A-4449-9641-FA0B02217821}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="874413" y="243840"/>
-          <a:ext cx="459722" cy="464819"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>234575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1041987</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9856E85-8C79-4A64-A059-7BF12A0329F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -13787,8 +12649,8 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495425" cy="626775"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -13859,7 +12721,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13871,7 +12733,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13885,7 +12747,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13902,7 +12764,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13915,7 +12777,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13927,7 +12789,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13941,7 +12803,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13957,7 +12819,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13970,7 +12832,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13984,7 +12846,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13998,7 +12860,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14012,7 +12874,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14025,7 +12887,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14039,7 +12901,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14057,7 +12919,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14069,7 +12931,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14083,7 +12945,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14096,7 +12958,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14110,7 +12972,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14139,7 +13001,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -14742,10 +13604,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15100,21 +13958,21 @@
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -15139,19 +13997,19 @@
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
@@ -15176,19 +14034,19 @@
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
@@ -15213,19 +14071,19 @@
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
@@ -15250,19 +14108,19 @@
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
@@ -15422,8 +14280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF729F87-54F6-4F8F-BC27-2EC06767AD7E}">
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15436,26 +14294,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -15491,9 +14349,7 @@
       <c r="E5" s="2">
         <v>5.2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -15508,9 +14364,7 @@
       <c r="E6" s="2">
         <v>5.2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -15525,9 +14379,7 @@
       <c r="E7" s="2">
         <v>5.16</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
@@ -15542,9 +14394,7 @@
       <c r="E8" s="2">
         <v>5.18</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -15559,9 +14409,7 @@
       <c r="E9" s="2">
         <v>5.18</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
@@ -15576,9 +14424,7 @@
       <c r="E10" s="2">
         <v>5.18</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
@@ -15593,9 +14439,7 @@
       <c r="E11" s="2">
         <v>7.9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
@@ -15610,9 +14454,7 @@
       <c r="E12" s="2">
         <v>6.7</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
@@ -15627,9 +14469,7 @@
       <c r="E13" s="2">
         <v>6.7</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
@@ -15644,9 +14484,7 @@
       <c r="E14" s="2">
         <v>7.2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
@@ -15661,9 +14499,7 @@
       <c r="E15" s="2">
         <v>8.5</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
@@ -15678,9 +14514,7 @@
       <c r="E16" s="2">
         <v>8.1</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
@@ -15695,9 +14529,7 @@
       <c r="E17" s="2">
         <v>7.2</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
@@ -15712,9 +14544,7 @@
       <c r="E18" s="2">
         <v>5.2</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
@@ -15729,9 +14559,7 @@
       <c r="E19" s="2">
         <v>5.2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
@@ -15746,9 +14574,7 @@
       <c r="E20" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
@@ -15763,9 +14589,7 @@
       <c r="E21" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
@@ -15780,9 +14604,7 @@
       <c r="E22" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15791,13 +14613,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:F22">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"Cumple parcialmente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"No cumple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"Cumple"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15823,8 +14645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F739D9F-730E-409D-9A0C-7EAE2DE34704}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15837,26 +14659,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -15892,9 +14714,7 @@
       <c r="E5" s="2">
         <v>5.2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -15909,9 +14729,7 @@
       <c r="E6" s="2">
         <v>5.2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -15926,9 +14744,7 @@
       <c r="E7" s="2">
         <v>5.15</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
@@ -15943,9 +14759,7 @@
       <c r="E8" s="24">
         <v>5.16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -15960,9 +14774,7 @@
       <c r="E9" s="2">
         <v>5.18</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
@@ -15977,9 +14789,7 @@
       <c r="E10" s="2">
         <v>5.18</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
@@ -15994,9 +14804,7 @@
       <c r="E11" s="2">
         <v>7.2</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
@@ -16011,9 +14819,7 @@
       <c r="E12" s="2">
         <v>8.1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
@@ -16028,9 +14834,7 @@
       <c r="E13" s="2">
         <v>8.1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
@@ -16045,9 +14849,7 @@
       <c r="E14" s="2">
         <v>5.2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
@@ -16062,9 +14864,7 @@
       <c r="E15" s="2">
         <v>5.2</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
@@ -16079,9 +14879,7 @@
       <c r="E16" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
@@ -16096,9 +14894,7 @@
       <c r="E17" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
@@ -16113,9 +14909,7 @@
       <c r="E18" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
@@ -16130,9 +14924,7 @@
       <c r="E19" s="2">
         <v>5.18</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16141,13 +14933,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:F19">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"Cumple parcialmente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"No cumple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"Cumple"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16174,7 +14966,7 @@
   <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16191,73 +14983,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="133" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="110" t="s">
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="124" t="s">
         <v>342</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="134" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
@@ -16267,14 +15059,14 @@
       <c r="I5" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="120"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="126" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="126" t="s">
         <v>347</v>
       </c>
       <c r="D6" s="47">
@@ -16289,28 +15081,28 @@
       </c>
       <c r="G6" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D6,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D6,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D6,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D6,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D6,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D6,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H6" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D6,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D6,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D6,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D6,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D6,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D6,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D6,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D6,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D6,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D6,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D6,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D6,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6" s="71">
         <f>IF(F6=0,0,((G6*2)+(H6*1)+(I6*0))/(F6*2))</f>
-        <v>0.64516129032258063</v>
+        <v>0</v>
       </c>
       <c r="K6" s="24" t="str">
         <f>IF(AND(J6&gt;=0.5,J6&lt;=1),"Conforme",IF(AND(J6&gt;=0,J6&lt;0.5),"Necesita Mejoras","Ingrese un valor válido"))</f>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="47">
         <v>5.3</v>
       </c>
@@ -16323,7 +15115,7 @@
       </c>
       <c r="G7" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D7,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D7,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D7,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D7,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D7,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D7,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D7,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D7,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D7,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D7,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D7,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D7,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
@@ -16331,20 +15123,20 @@
       </c>
       <c r="I7" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D7,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D7,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D7,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D7,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D7,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D7,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="71">
         <f t="shared" ref="J7:J23" si="0">IF(F7=0,0,((G7*2)+(H7*1)+(I7*0))/(F7*2))</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="K7" s="24" t="str">
         <f t="shared" ref="K7:K23" si="1">IF(AND(J7&gt;=0.5,J7&lt;=1),"Conforme",IF(AND(J7&gt;=0,J7&lt;0.5),"Necesita Mejoras","Ingrese un valor válido"))</f>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="47">
         <v>5.15</v>
       </c>
@@ -16357,28 +15149,28 @@
       </c>
       <c r="G8" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D8,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D8,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D8,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D8,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D8,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D8,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H8" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D8,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D8,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D8,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D8,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D8,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D8,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D8,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D8,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D8,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D8,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D8,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D8,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="71">
         <f t="shared" si="0"/>
-        <v>0.80769230769230771</v>
+        <v>0</v>
       </c>
       <c r="K8" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="47">
         <v>5.16</v>
       </c>
@@ -16391,19 +15183,19 @@
       </c>
       <c r="G9" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D9,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D9,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D9,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D9,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D9,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D9,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D9,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D9,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D9,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D9,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D9,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D9,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I9" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D9,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D9,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D9,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D9,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D9,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D9,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="71">
         <f t="shared" si="0"/>
-        <v>0.40909090909090912</v>
+        <v>0</v>
       </c>
       <c r="K9" s="24" t="str">
         <f>IF(AND(J9&gt;=0.5,J9&lt;=1),"Conforme",IF(AND(J9&gt;=0,J9&lt;0.5),"Necesita Mejoras","Ingrese un valor válido"))</f>
@@ -16411,8 +15203,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="47">
         <v>5.17</v>
       </c>
@@ -16425,11 +15217,11 @@
       </c>
       <c r="G10" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D10,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D10,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D10,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D10,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D10,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D10,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D10,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D10,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D10,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D10,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D10,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D10,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D10,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D10,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D10,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D10,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D10,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D10,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
@@ -16437,16 +15229,16 @@
       </c>
       <c r="J10" s="71">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="47">
         <v>5.18</v>
       </c>
@@ -16459,23 +15251,23 @@
       </c>
       <c r="G11" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D11,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D11,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D11,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D11,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D11,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D11,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H11" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D11,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D11,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D11,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D11,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D11,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D11,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D11,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D11,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D11,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D11,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D11,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D11,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" s="71">
         <f t="shared" si="0"/>
-        <v>0.57894736842105265</v>
+        <v>0</v>
       </c>
       <c r="K11" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
@@ -16497,11 +15289,11 @@
       </c>
       <c r="G12" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D12,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D12,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D12,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D12,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D12,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D12,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D12,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D12,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D12,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D12,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D12,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D12,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D12,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D12,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D12,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D12,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D12,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D12,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
@@ -16509,18 +15301,18 @@
       </c>
       <c r="J12" s="71">
         <f>IF(F12=0,0,((G12*2)+(H12*1)+(I12*0))/(F12*2))</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K12" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="129" t="s">
         <v>358</v>
       </c>
       <c r="D13" s="47">
@@ -16535,19 +15327,19 @@
       </c>
       <c r="G13" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D13,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D13,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D13,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D13,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D13,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D13,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D13,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D13,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D13,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D13,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D13,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D13,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I13" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D13,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D13,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D13,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D13,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D13,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D13,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="71">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="K13" s="24" t="str">
         <f t="shared" si="1"/>
@@ -16555,8 +15347,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="113"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="47">
         <v>7.4</v>
       </c>
@@ -16569,7 +15361,7 @@
       </c>
       <c r="G14" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D14,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D14,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D14,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D14,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D14,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D14,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D14,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D14,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D14,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D14,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D14,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D14,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
@@ -16581,16 +15373,16 @@
       </c>
       <c r="J14" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="113"/>
-      <c r="C15" s="116"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="47">
         <v>7.9</v>
       </c>
@@ -16607,7 +15399,7 @@
       </c>
       <c r="H15" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D15,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D15,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D15,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D15,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D15,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D15,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D15,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D15,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D15,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D15,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D15,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D15,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
@@ -16615,16 +15407,16 @@
       </c>
       <c r="J15" s="71">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K15" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="114"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="47">
         <v>7.1</v>
       </c>
@@ -16637,7 +15429,7 @@
       </c>
       <c r="G16" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D16,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D16,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D16,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D16,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D16,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D16,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D16,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D16,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D16,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D16,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D16,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D16,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
@@ -16649,18 +15441,18 @@
       </c>
       <c r="J16" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="126" t="s">
         <v>363</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="129" t="s">
         <v>364</v>
       </c>
       <c r="D17" s="47">
@@ -16679,15 +15471,15 @@
       </c>
       <c r="H17" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D17,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D17,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D17,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D17,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D17,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D17,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D17,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D17,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D17,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D17,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D17,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D17,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="71">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K17" s="24" t="str">
         <f t="shared" si="1"/>
@@ -16695,8 +15487,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="113"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="47">
         <v>8.1999999999999993</v>
       </c>
@@ -16709,28 +15501,28 @@
       </c>
       <c r="G18" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D18,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D18,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D18,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D18,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D18,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D18,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D18,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D18,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D18,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D18,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D18,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D18,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D18,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D18,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D18,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D18,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D18,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D18,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="71">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0</v>
       </c>
       <c r="K18" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="113"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="47">
         <v>8.3000000000000007</v>
       </c>
@@ -16743,7 +15535,7 @@
       </c>
       <c r="G19" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D19,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D19,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D19,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D19,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D19,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D19,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D19,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D19,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D19,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D19,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D19,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D19,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
@@ -16755,16 +15547,16 @@
       </c>
       <c r="J19" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="113"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="47">
         <v>8.4</v>
       </c>
@@ -16777,7 +15569,7 @@
       </c>
       <c r="G20" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D20,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D20,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D20,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D20,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D20,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D20,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D20,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D20,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D20,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D20,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D20,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D20,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
@@ -16785,20 +15577,20 @@
       </c>
       <c r="I20" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D20,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D20,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D20,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D20,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D20,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D20,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="71">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K20" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="113"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="47">
         <v>8.5</v>
       </c>
@@ -16811,28 +15603,28 @@
       </c>
       <c r="G21" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D21,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D21,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D21,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D21,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D21,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D21,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D21,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D21,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D21,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D21,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D21,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D21,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D21,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D21,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D21,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D21,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D21,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D21,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="71">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="K21" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="113"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="47">
         <v>8.2200000000000006</v>
       </c>
@@ -16849,7 +15641,7 @@
       </c>
       <c r="H22" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D22,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D22,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D22,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D22,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D22,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D22,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D22,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D22,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D22,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D22,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D22,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D22,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
@@ -16857,16 +15649,16 @@
       </c>
       <c r="J22" s="71">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="114"/>
-      <c r="C23" s="117"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="47">
         <v>8.31</v>
       </c>
@@ -16879,11 +15671,11 @@
       </c>
       <c r="G23" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D23,'1 Crear'!$F$5:$F$31,$G$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D23,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$G$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D23,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$G$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D23,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$G$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D23,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$G$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D23,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$G$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D23,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$H$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D23,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$H$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D23,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$H$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D23,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$H$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D23,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$H$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D23,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$H$5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="47">
         <f>COUNTIFS('1 Crear'!$E$5:$E$31,'Cumplimiento ISO'!D23,'1 Crear'!$F$5:$F$31,'Cumplimiento ISO'!$I$5)+COUNTIFS('2 Activar'!$E$5:$E$33,'Cumplimiento ISO'!D23,'2 Activar'!$F$5:$F$33,'Cumplimiento ISO'!$I$5)+COUNTIFS('3 Asignar'!$E$5:$E$30,'Cumplimiento ISO'!D23,'3 Asignar'!$F$5:$F$30,'Cumplimiento ISO'!$I$5)+COUNTIFS('4 Revisar'!$E$5:$E$32,'Cumplimiento ISO'!D23,'4 Revisar'!$F$5:$F$32,'Cumplimiento ISO'!$I$5)+COUNTIFS('5 Mod-Desc'!$E$5:$E$22,'Cumplimiento ISO'!D23,'5 Mod-Desc'!$F$5:$F$22,'Cumplimiento ISO'!$I$5)+COUNTIFS('6 Eliminar'!$E$5:$E$19,'Cumplimiento ISO'!D23,'6 Eliminar'!$F$5:$F$19,'Cumplimiento ISO'!$I$5)</f>
@@ -16891,11 +15683,11 @@
       </c>
       <c r="J23" s="71">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K23" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Conforme</v>
+        <v>Necesita Mejoras</v>
       </c>
     </row>
   </sheetData>
@@ -16918,10 +15710,10 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K23">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="Necesita Mejoras">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Necesita Mejoras">
       <formula>NOT(ISERROR(SEARCH("Necesita Mejoras",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="Conforme">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Conforme">
       <formula>NOT(ISERROR(SEARCH("Conforme",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16935,7 +15727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C03D9-E289-4522-83B2-E38D4AFA0739}">
   <dimension ref="B2:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="F12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25:Q27"/>
     </sheetView>
   </sheetViews>
@@ -16965,36 +15757,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="2:27" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
@@ -17025,30 +15817,30 @@
         <v>36</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O4" s="78"/>
       <c r="P4" s="29" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="94" t="s">
         <v>377</v>
       </c>
       <c r="S4" s="55" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="T4" s="53" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B5" s="122">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="137" t="s">
         <v>378</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -17060,53 +15852,53 @@
       </c>
       <c r="G5" s="1">
         <f>SUM(J5:K5)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H5" s="33">
         <f>IF(F5 = 0,0,G5/F5)</f>
-        <v>0.92307692307692313</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"Cumple",'1 Crear'!$C$5:$C$31,Resultados!D5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"Cumple parcialmente",'1 Crear'!$C$5:$C$31,Resultados!D5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"No cumple",'1 Crear'!$C$5:$C$31,Resultados!D5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="34">
         <f>IF(F5 = 0,0,((J5*2)+(K5*1)+(L5*0))/(F5*2))</f>
-        <v>0.73076923076923073</v>
+        <v>0</v>
       </c>
       <c r="N5" s="72" t="str">
         <f>IF(AND(M5&gt;=0.8,M5&lt;=1),"OPTIMIZADO",IF(AND(M5&gt;=0.6,M5&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(M5&gt;=0.4,M5&lt;0.6),"DEFINIDO",IF(AND(M5&gt;=0.2,M5&lt;0.4),"ADMINISTRADO",IF(AND(M5&gt;=0,M5&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O5" s="46"/>
-      <c r="P5" s="123">
+      <c r="P5" s="135">
         <f>SUM(M5:M7)/3</f>
-        <v>0.73664529914529908</v>
-      </c>
-      <c r="Q5" s="121" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="136" t="str">
         <f>IF(AND(P5&gt;=0.8,P5&lt;=1),"OPTIMIZADO",IF(AND(P5&gt;=0.6,P5&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P5&gt;=0.4,P5&lt;0.6),"DEFINIDO",IF(AND(P5&gt;=0.2,P5&lt;0.4),"ADMINISTRADO",IF(AND(P5&gt;=0,P5&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="S5" s="56">
         <f>SUM(M5:M27)/COUNTA(M5:M27)</f>
-        <v>0.59314713064713076</v>
+        <v>0</v>
       </c>
       <c r="T5" s="24" t="str">
         <f t="shared" ref="T5" si="0">IF(AND(S5&gt;=0.8,S5&lt;=1),"OPTIMIZADO",IF(AND(S5&gt;=0.6,S5&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(S5&gt;=0.4,S5&lt;0.6),"DEFINIDO",IF(AND(S5&gt;=0.2,S5&lt;0.4),"ADMINISTRADO",IF(AND(S5&gt;=0,S5&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
@@ -17116,19 +15908,19 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:G27" si="1">SUM(J6:K6)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" ref="H6:H27" si="2">IF(F6 = 0,0,G6/F6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"Cumple",'1 Crear'!$C$5:$C$31,Resultados!D6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"Cumple parcialmente",'1 Crear'!$C$5:$C$31,Resultados!D6)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"No cumple",'1 Crear'!$C$5:$C$31,Resultados!D6)</f>
@@ -17136,19 +15928,19 @@
       </c>
       <c r="M6" s="34">
         <f t="shared" ref="M6:M7" si="3">IF(F6 = 0,0,((J6*2)+(K6*1)+(L6*0))/(F6*2))</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N6" s="72" t="str">
         <f t="shared" ref="N6:N27" si="4">IF(AND(M6&gt;=0.8,M6&lt;=1),"OPTIMIZADO",IF(AND(M6&gt;=0.6,M6&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(M6&gt;=0.4,M6&lt;0.6),"DEFINIDO",IF(AND(M6&gt;=0.2,M6&lt;0.4),"ADMINISTRADO",IF(AND(M6&gt;=0,M6&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O6" s="46"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="121"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="136"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
@@ -17158,35 +15950,35 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H7" s="95">
         <f t="shared" si="2"/>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"Cumple",'1 Crear'!$C$5:$C$31,Resultados!D7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"Cumple parcialmente",'1 Crear'!$C$5:$C$31,Resultados!D7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <f>COUNTIFS('1 Crear'!$F$5:$F$31,"No cumple",'1 Crear'!$C$5:$C$31,Resultados!D7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="99">
         <f t="shared" si="3"/>
-        <v>0.8125</v>
+        <v>0</v>
       </c>
       <c r="N7" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>OPTIMIZADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O7" s="46"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="121"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="136"/>
       <c r="S7" s="1"/>
       <c r="T7" s="59" t="s">
         <v>32</v>
@@ -17213,29 +16005,29 @@
       </c>
       <c r="T8" s="1">
         <f t="shared" ref="T8:V10" si="5">J5+J9+J13+J17+J21+J25</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W8" s="34">
         <f>((T8*2)+(U8*1)+(V8*0))/((F5+F9+F13+F17+F21+F25)*2)</f>
-        <v>0.62686567164179108</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="51"/>
       <c r="Z8" s="51"/>
       <c r="AA8" s="51"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="122">
+      <c r="B9" s="137">
         <v>2</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="137" t="s">
         <v>380</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -17247,67 +16039,67 @@
       </c>
       <c r="G9" s="1">
         <f>SUM(J9:K9)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H9" s="96">
         <f t="shared" si="2"/>
-        <v>0.7857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"Cumple",'2 Activar'!$C$5:$C$33,Resultados!D9)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"Cumple parcialmente",'2 Activar'!$C$5:$C$33,Resultados!D9)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"No cumple",'2 Activar'!$C$5:$C$33,Resultados!D9)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="54">
         <f t="shared" ref="M9:M27" si="6">IF(F9 = 0,0,((J9*2)+(K9*1)+(L9*0))/(F9*2))</f>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="N9" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O9" s="46"/>
-      <c r="P9" s="123">
+      <c r="P9" s="135">
         <f>SUM(M9:M11)/3</f>
-        <v>0.5625</v>
-      </c>
-      <c r="Q9" s="121" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="136" t="str">
         <f>IF(AND(P9&gt;=0.8,P9&lt;=1),"OPTIMIZADO",IF(AND(P9&gt;=0.6,P9&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P9&gt;=0.4,P9&lt;0.6),"DEFINIDO",IF(AND(P9&gt;=0.2,P9&lt;0.4),"ADMINISTRADO",IF(AND(P9&gt;=0,P9&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="S9" s="59" t="s">
         <v>74</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W9" s="34">
         <f>((T9*2)+(U9*1)+(V9*0))/((F6+F10+F14+F18+F22+F26)*2)</f>
-        <v>0.6216216216216216</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
       <c r="AA9" s="51"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
@@ -17317,61 +16109,61 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="2"/>
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"Cumple",'2 Activar'!$C$5:$C$33,Resultados!D10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"Cumple parcialmente",'2 Activar'!$C$5:$C$33,Resultados!D10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"No cumple",'2 Activar'!$C$5:$C$33,Resultados!D10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="6"/>
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="N10" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O10" s="46"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="121"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136"/>
       <c r="S10" s="59" t="s">
         <v>87</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W10" s="34">
         <f>((T10*2)+(U10*1)+(V10*0))/((F7+F11+F15+F19+F23+F27)*2)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
       <c r="AA10" s="51"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="1" t="s">
         <v>87</v>
       </c>
@@ -17381,35 +16173,35 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H11" s="95">
         <f t="shared" si="2"/>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"Cumple",'2 Activar'!$C$5:$C$33,Resultados!D11)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"Cumple parcialmente",'2 Activar'!$C$5:$C$33,Resultados!D11)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <f>COUNTIFS('2 Activar'!$F$5:$F$33,"No cumple",'2 Activar'!$C$5:$C$33,Resultados!D11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="99">
         <f t="shared" si="6"/>
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="N11" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O11" s="46"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="121"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="H12" s="97"/>
@@ -17420,10 +16212,10 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="122">
+      <c r="B13" s="137">
         <v>3</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="137" t="s">
         <v>381</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -17435,45 +16227,45 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"Cumple",'3 Asignar'!$C$5:$C$30,Resultados!D13)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"Cumple parcialmente",'3 Asignar'!$C$5:$C$30,Resultados!D13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"No cumple",'3 Asignar'!$C$5:$C$30,Resultados!D13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="54">
         <f t="shared" si="6"/>
-        <v>0.7857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N13" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O13" s="46"/>
-      <c r="P13" s="123">
+      <c r="P13" s="135">
         <f>SUM(M13:M15)/3</f>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="Q13" s="121" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="136" t="str">
         <f>IF(AND(P13&gt;=0.8,P13&lt;=1),"OPTIMIZADO",IF(AND(P13&gt;=0.6,P13&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P13&gt;=0.4,P13&lt;0.6),"DEFINIDO",IF(AND(P13&gt;=0.2,P13&lt;0.4),"ADMINISTRADO",IF(AND(P13&gt;=0,P13&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
@@ -17483,39 +16275,39 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14" s="33">
         <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"Cumple",'3 Asignar'!$C$5:$C$30,Resultados!D14)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"Cumple parcialmente",'3 Asignar'!$C$5:$C$30,Resultados!D14)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"No cumple",'3 Asignar'!$C$5:$C$30,Resultados!D14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="34">
         <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="N14" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O14" s="46"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="121"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="136"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
@@ -17525,35 +16317,35 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="95">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"Cumple",'3 Asignar'!$C$5:$C$30,Resultados!D15)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"Cumple parcialmente",'3 Asignar'!$C$5:$C$30,Resultados!D15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <f>COUNTIFS('3 Asignar'!$F$5:$F$30,"No cumple",'3 Asignar'!$C$5:$C$30,Resultados!D15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="99">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N15" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O15" s="46"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="121"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="H16" s="97"/>
@@ -17564,10 +16356,10 @@
       <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="122">
+      <c r="B17" s="137">
         <v>4</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="137" t="s">
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -17579,45 +16371,45 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H17" s="96">
         <f t="shared" si="2"/>
-        <v>0.92307692307692313</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"Cumple",'4 Revisar'!$C$5:$C$32,Resultados!D17)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"Cumple parcialmente",'4 Revisar'!$C$5:$C$32,Resultados!D17)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"No cumple",'4 Revisar'!$C$5:$C$32,Resultados!D17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="54">
         <f t="shared" si="6"/>
-        <v>0.69230769230769229</v>
+        <v>0</v>
       </c>
       <c r="N17" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O17" s="46"/>
-      <c r="P17" s="123">
+      <c r="P17" s="135">
         <f>SUM(M17:M19)/3</f>
-        <v>0.80815018315018305</v>
-      </c>
-      <c r="Q17" s="121" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="136" t="str">
         <f>IF(AND(P17&gt;=0.8,P17&lt;=1),"OPTIMIZADO",IF(AND(P17&gt;=0.6,P17&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P17&gt;=0.4,P17&lt;0.6),"DEFINIDO",IF(AND(P17&gt;=0.2,P17&lt;0.4),"ADMINISTRADO",IF(AND(P17&gt;=0,P17&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>OPTIMIZADO</v>
+        <v>INICIAL</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
@@ -17627,19 +16419,19 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"Cumple",'4 Revisar'!$C$5:$C$32,Resultados!D18)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"Cumple parcialmente",'4 Revisar'!$C$5:$C$32,Resultados!D18)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"No cumple",'4 Revisar'!$C$5:$C$32,Resultados!D18)</f>
@@ -17647,19 +16439,19 @@
       </c>
       <c r="M18" s="34">
         <f t="shared" si="6"/>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="N18" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>OPTIMIZADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O18" s="46"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="121"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
@@ -17669,19 +16461,19 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H19" s="95">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"Cumple",'4 Revisar'!$C$5:$C$32,Resultados!D19)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"Cumple parcialmente",'4 Revisar'!$C$5:$C$32,Resultados!D19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <f>COUNTIFS('4 Revisar'!$F$5:$F$32,"No cumple",'4 Revisar'!$C$5:$C$32,Resultados!D19)</f>
@@ -17689,15 +16481,15 @@
       </c>
       <c r="M19" s="99">
         <f t="shared" si="6"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N19" s="72" t="str">
         <f>IF(AND(M19&gt;=0.8,M19&lt;=1),"OPTIMIZADO",IF(AND(M19&gt;=0.6,M19&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(M19&gt;=0.4,M19&lt;0.6),"DEFINIDO",IF(AND(M19&gt;=0.2,M19&lt;0.4),"ADMINISTRADO",IF(AND(M19&gt;=0,M19&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>OPTIMIZADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O19" s="46"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="121"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H20" s="97"/>
@@ -17708,10 +16500,10 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="122">
+      <c r="B21" s="137">
         <v>5</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="137" t="s">
         <v>383</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -17723,45 +16515,45 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21" s="96">
         <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"Cumple",'5 Mod-Desc'!$C$5:$C$22,Resultados!D21)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"Cumple parcialmente",'5 Mod-Desc'!$C$5:$C$22,Resultados!D21)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"No cumple",'5 Mod-Desc'!$C$5:$C$22,Resultados!D21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="54">
         <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="N21" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O21" s="46"/>
-      <c r="P21" s="123">
+      <c r="P21" s="135">
         <f>SUM(M21:M23)/3</f>
-        <v>0.57936507936507942</v>
-      </c>
-      <c r="Q21" s="121" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="136" t="str">
         <f>IF(AND(P21&gt;=0.8,P21&lt;=1),"OPTIMIZADO",IF(AND(P21&gt;=0.6,P21&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P21&gt;=0.4,P21&lt;0.6),"DEFINIDO",IF(AND(P21&gt;=0.2,P21&lt;0.4),"ADMINISTRADO",IF(AND(P21&gt;=0,P21&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
@@ -17771,19 +16563,19 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22" s="33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"Cumple",'5 Mod-Desc'!$C$5:$C$22,Resultados!D22)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"Cumple parcialmente",'5 Mod-Desc'!$C$5:$C$22,Resultados!D22)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"No cumple",'5 Mod-Desc'!$C$5:$C$22,Resultados!D22)</f>
@@ -17791,22 +16583,22 @@
       </c>
       <c r="M22" s="34">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N22" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O22" s="46"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="121"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
       <c r="S22" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
@@ -17816,35 +16608,35 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="95">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"Cumple",'5 Mod-Desc'!$C$5:$C$22,Resultados!D23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"Cumple parcialmente",'5 Mod-Desc'!$C$5:$C$22,Resultados!D23)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <f>COUNTIFS('5 Mod-Desc'!$F$5:$F$22,"No cumple",'5 Mod-Desc'!$C$5:$C$22,Resultados!D23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="99">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O23" s="46"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="121"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="136"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H24" s="97"/>
@@ -17855,10 +16647,10 @@
       <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="122">
+      <c r="B25" s="137">
         <v>6</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="137" t="s">
         <v>385</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -17870,11 +16662,11 @@
       </c>
       <c r="G25" s="1">
         <f>SUM(J25:K25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="96">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"Cumple",'6 Eliminar'!$C$5:$C$19,Resultados!D25)</f>
@@ -17882,33 +16674,33 @@
       </c>
       <c r="K25" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"Cumple parcialmente",'6 Eliminar'!$C$5:$C$19,Resultados!D25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"No cumple",'6 Eliminar'!$C$5:$C$19,Resultados!D25)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M25" s="54">
         <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="72" t="str">
         <f t="shared" si="4"/>
         <v>INICIAL</v>
       </c>
       <c r="O25" s="46"/>
-      <c r="P25" s="123">
+      <c r="P25" s="135">
         <f>SUM(M25:M27)/3</f>
-        <v>0.13888888888888887</v>
-      </c>
-      <c r="Q25" s="121" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="136" t="str">
         <f>IF(AND(P25&gt;=0.8,P25&lt;=1),"OPTIMIZADO",IF(AND(P25&gt;=0.6,P25&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P25&gt;=0.4,P25&lt;0.6),"DEFINIDO",IF(AND(P25&gt;=0.2,P25&lt;0.4),"ADMINISTRADO",IF(AND(P25&gt;=0,P25&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
@@ -17934,7 +16726,7 @@
       </c>
       <c r="L26" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"No cumple",'6 Eliminar'!$C$5:$C$19,Resultados!D26)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="34">
         <f t="shared" si="6"/>
@@ -17945,12 +16737,12 @@
         <v>INICIAL</v>
       </c>
       <c r="O26" s="46"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="121"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="1" t="s">
         <v>87</v>
       </c>
@@ -17960,15 +16752,15 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="33">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"Cumple",'6 Eliminar'!$C$5:$C$19,Resultados!D27)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"Cumple parcialmente",'6 Eliminar'!$C$5:$C$19,Resultados!D27)</f>
@@ -17976,19 +16768,19 @@
       </c>
       <c r="L27" s="1">
         <f>COUNTIFS('6 Eliminar'!$F$5:$F$19,"No cumple",'6 Eliminar'!$C$5:$C$19,Resultados!D27)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M27" s="34">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N27" s="72" t="str">
         <f t="shared" si="4"/>
-        <v>ADMINISTRADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="O27" s="46"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="121"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="136"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="M28" s="45"/>
@@ -18005,11 +16797,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="Q21:Q23"/>
     <mergeCell ref="Q25:Q27"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
@@ -18026,11 +16818,11 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="P21:P23"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H27">
     <cfRule type="iconSet" priority="41">
@@ -18042,138 +16834,138 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O30">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+      <formula>"DEFINIDO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
+      <formula>"ADMINISTRADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
+      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>"OPTIMIZADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
-      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="38" operator="equal">
-      <formula>"ADMINISTRADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
-      <formula>"DEFINIDO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"INICIAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
-      <formula>"OPTIMIZADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
-      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="equal">
-      <formula>"ADMINISTRADO"</formula>
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
+      <formula>"INICIAL"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="29" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
-      <formula>"INICIAL"</formula>
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+      <formula>"ADMINISTRADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
+      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+      <formula>"OPTIMIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
-      <formula>"OPTIMIZADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
       <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>"ADMINISTRADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
       <formula>"INICIAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
+      <formula>"OPTIMIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
-      <formula>"OPTIMIZADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
-      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
-      <formula>"ADMINISTRADO"</formula>
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+      <formula>"INICIAL"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
-      <formula>"INICIAL"</formula>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+      <formula>"ADMINISTRADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+      <formula>"OPTIMIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
-      <formula>"OPTIMIZADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
-      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
-      <formula>"ADMINISTRADO"</formula>
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>"INICIAL"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
-      <formula>"INICIAL"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>"ADMINISTRADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+      <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>"OPTIMIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"OPTIMIZADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"ADMINISTRADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"INICIAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
-      <formula>"OPTIMIZADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"ADMINISTRADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"INICIAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"OPTIMIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
       <formula>"OPTIMIZADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
       <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
       <formula>"ADMINISTRADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="34" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="35" operator="equal">
       <formula>"INICIAL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18187,7 +16979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A927F90-2211-46A1-8BB9-95924371D9D5}">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -18201,16 +16993,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -18218,16 +17010,16 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="138" t="s">
         <v>387</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="68"/>
@@ -18248,7 +17040,7 @@
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(AND(Resultados!S5&gt;=0.8,Resultados!S5&lt;=1),"OPTIMIZADO",IF(AND(Resultados!S5&gt;=0.6,Resultados!S5&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(Resultados!S5&gt;=0.4,Resultados!S5&lt;0.6),"DEFINIDO",IF(AND(Resultados!S5&gt;=0.2,Resultados!S5&lt;0.4),"ADMINISTRADO",IF(AND(Resultados!S5&gt;=0,Resultados!S5&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
@@ -18372,23 +17164,23 @@
       <c r="B16" s="61"/>
       <c r="C16" s="73" t="str">
         <f>Resultados!Q5</f>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="D16" s="73" t="str">
         <f>Resultados!Q9</f>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>Resultados!Q13</f>
-        <v>CUANTITATIVAMENTE GESTIONADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="F16" s="73" t="str">
         <f>Resultados!Q17</f>
-        <v>OPTIMIZADO</v>
+        <v>INICIAL</v>
       </c>
       <c r="G16" s="73" t="str">
         <f>Resultados!Q21</f>
-        <v>DEFINIDO</v>
+        <v>INICIAL</v>
       </c>
       <c r="H16" s="73" t="str">
         <f>Resultados!Q25</f>
@@ -18639,36 +17431,36 @@
     <mergeCell ref="B3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:H16">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="OPTIMIZADO">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OPTIMIZADO">
       <formula>NOT(ISERROR(SEARCH("OPTIMIZADO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="CUANTITATIVAMENTE GESTIONADO">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="CUANTITATIVAMENTE GESTIONADO">
       <formula>NOT(ISERROR(SEARCH("CUANTITATIVAMENTE GESTIONADO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="DEFINIDO">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="DEFINIDO">
       <formula>NOT(ISERROR(SEARCH("DEFINIDO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="ADMINISTRADO">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ADMINISTRADO">
       <formula>NOT(ISERROR(SEARCH("ADMINISTRADO",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="INICIAL">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="INICIAL">
       <formula>NOT(ISERROR(SEARCH("INICIAL",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"OPTIMIZADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"CUANTITATIVAMENTE GESTIONADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"ADMINISTRADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"DEFINIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"INICIAL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18682,7 +17474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC1250-B59F-4A52-8196-CD13BECFF42C}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -18697,16 +17489,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="B2" s="112" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -18714,24 +17506,24 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="138" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="84"/>
-      <c r="C4" s="150" t="s">
-        <v>446</v>
+      <c r="C4" s="108" t="s">
+        <v>440</v>
       </c>
       <c r="D4" s="84"/>
-      <c r="E4" s="151"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
       <c r="H4" s="84"/>
@@ -18739,10 +17531,9 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="35"/>
-      <c r="C5" s="152" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="153"/>
+      <c r="C5" s="110" t="s">
+        <v>394</v>
+      </c>
       <c r="E5" s="85" t="str">
         <f>Resultados!Q25</f>
         <v>INICIAL</v>
@@ -18756,29 +17547,29 @@
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="35"/>
       <c r="C7" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>396</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>397</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="35"/>
-      <c r="C8" s="160"/>
-      <c r="E8" s="154"/>
+      <c r="C8" s="145"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="35"/>
-      <c r="C9" s="160"/>
-      <c r="E9" s="155"/>
+      <c r="C9" s="145"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="35"/>
-      <c r="C10" s="160"/>
-      <c r="E10" s="156"/>
+      <c r="C10" s="145"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
@@ -18788,18 +17579,18 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="35"/>
-      <c r="C12" s="131" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="C12" s="139" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:14" ht="52.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="35"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
@@ -18813,18 +17604,18 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="35"/>
-      <c r="C15" s="131" t="s">
-        <v>402</v>
-      </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
+      <c r="C15" s="139" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:14" ht="200.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="35"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -18836,18 +17627,18 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="35"/>
-      <c r="C18" s="131" t="s">
-        <v>404</v>
-      </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
+      <c r="C18" s="139" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
       <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="35"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="159"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="144"/>
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -18893,229 +17684,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA7F38C-4429-4C00-A190-5D4CC2986CBC}">
-  <dimension ref="B2:N21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.54296875" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" customWidth="1"/>
-    <col min="6" max="8" width="26.81640625" customWidth="1"/>
-    <col min="12" max="12" width="26.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="2:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="124" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="84"/>
-      <c r="C4" s="150" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="C5" s="152" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="85" t="str">
-        <f>Resultados!Q25</f>
-        <v>INICIAL</v>
-      </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
-      <c r="C7" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="35"/>
-      <c r="C8" s="134" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" s="128" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="35"/>
-      <c r="C9" s="134"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="35"/>
-      <c r="C10" s="134"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="35"/>
-      <c r="C11" s="83"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="35"/>
-      <c r="C12" s="131" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="2:14" ht="52.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="35"/>
-      <c r="C13" s="135" t="s">
-        <v>401</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="35"/>
-      <c r="C14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="35"/>
-      <c r="G14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="35"/>
-      <c r="C15" s="131" t="s">
-        <v>402</v>
-      </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="2:14" ht="200.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="35"/>
-      <c r="C16" s="135" t="s">
-        <v>403</v>
-      </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="35"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="35"/>
-      <c r="C18" s="131" t="s">
-        <v>404</v>
-      </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35"/>
-      <c r="C19" s="125" t="s">
-        <v>405</v>
-      </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"INICIAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"DEFINIDO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4EFF7C-DAA4-49D6-801F-7CA1FCBC5A8F}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -19176,192 +17744,192 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="149" t="s">
         <v>378</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C8" s="1">
         <f>Resultados!P5-C9/2</f>
-        <v>0.71664529914529906</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="138"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="138"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C10" s="1">
         <f>SUM($C$1:$C$6)-C8-C9</f>
-        <v>1.243354700854701</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="52"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="149" t="s">
         <v>380</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1">
         <f>Resultados!P9-C13/2</f>
-        <v>0.54749999999999999</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="138"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="138"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C14" s="1">
         <f>SUM($C$1:$C$6)-C12-C13</f>
-        <v>1.4225000000000001</v>
+        <v>1.9850000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="149" t="s">
         <v>381</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C16" s="1">
         <f>Resultados!P13-C17/2</f>
-        <v>0.71833333333333338</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="138"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C17" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="138"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C18" s="1">
         <f>SUM($C$1:$C$6)-C16-C17</f>
-        <v>1.2516666666666667</v>
+        <v>1.9850000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="149" t="s">
         <v>382</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C20" s="1">
         <f>Resultados!P17-C21/2</f>
-        <v>0.79315018315018304</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="138"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C21" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="138"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C22" s="1">
         <f>SUM($C$1:$C$6)-C20-C21</f>
-        <v>1.1768498168498169</v>
+        <v>1.9850000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="149" t="s">
         <v>390</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C24" s="1">
         <f>Resultados!P21-C25/2</f>
-        <v>0.5643650793650794</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="138"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C25" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="138"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C26" s="1">
         <f>SUM($C$1:$C$6)-C24-C25</f>
-        <v>1.4056349206349206</v>
+        <v>1.9850000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="149" t="s">
         <v>385</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C28" s="1">
         <f>Resultados!P25-C29/2</f>
-        <v>0.12388888888888887</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="138"/>
+      <c r="A29" s="149"/>
       <c r="B29" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C29" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="138"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C30" s="1">
         <f>SUM($C$1:$C$6)-C28-C29</f>
-        <v>1.846111111111111</v>
+        <v>1.9850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19394,24 +17962,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="3"/>
@@ -19420,24 +17988,24 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="43" t="s">
         <v>8</v>
       </c>
@@ -19563,11 +18131,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -19576,11 +18144,11 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="3"/>
@@ -19648,138 +18216,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="119" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="102" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="144" t="s">
+    </row>
+    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="120" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="144" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" s="144" t="s">
+      <c r="C9" s="105" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="105" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="140" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="139" t="s">
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B11" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B12" s="102" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="140" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" s="140" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="139" t="s">
+      <c r="C12" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B13" s="102" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="140" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="139" t="s">
+      <c r="C13" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B14" s="102" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="149" t="s">
+      <c r="C14" s="102" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="102" t="s">
         <v>422</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="140" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10" s="140" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B11" s="140" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B12" s="140" t="s">
-        <v>425</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" s="141" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B13" s="140" t="s">
-        <v>426</v>
-      </c>
-      <c r="C13" s="140" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="141" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B14" s="140" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14" s="140" t="s">
+      <c r="C15" s="102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="103" t="s">
         <v>429</v>
-      </c>
-      <c r="D14" s="141" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="140" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="140" t="s">
-        <v>385</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -19807,11 +18375,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -19820,11 +18388,11 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="3"/>
@@ -19888,67 +18456,67 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="120" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="104" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="121" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="142" t="s">
+      <c r="D15" s="121"/>
+    </row>
+    <row r="16" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="107" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="121"/>
+    </row>
+    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="121" t="s">
         <v>437</v>
       </c>
-      <c r="C15" s="147" t="s">
-        <v>442</v>
-      </c>
-      <c r="D15" s="147"/>
-    </row>
-    <row r="16" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="146" t="s">
+      <c r="D17" s="121"/>
+    </row>
+    <row r="18" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="121" t="s">
         <v>438</v>
       </c>
-      <c r="C16" s="147" t="s">
-        <v>441</v>
-      </c>
-      <c r="D16" s="147"/>
-    </row>
-    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="147" t="s">
-        <v>443</v>
-      </c>
-      <c r="D17" s="147"/>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="142" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="147" t="s">
-        <v>444</v>
-      </c>
-      <c r="D18" s="147"/>
+      <c r="D18" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19971,8 +18539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786B509C-60B1-44B6-A5AE-7539EEC76530}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19984,26 +18552,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20039,9 +18607,7 @@
       <c r="E5" s="2">
         <v>5.2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -20056,9 +18622,7 @@
       <c r="E6" s="2">
         <v>5.2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -20073,9 +18637,7 @@
       <c r="E7" s="2">
         <v>5.3</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
@@ -20090,9 +18652,7 @@
       <c r="E8" s="2">
         <v>5.15</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -20107,9 +18667,7 @@
       <c r="E9" s="2">
         <v>5.15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
@@ -20124,9 +18682,7 @@
       <c r="E10" s="2">
         <v>5.16</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
@@ -20141,9 +18697,7 @@
       <c r="E11" s="2">
         <v>5.15</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
@@ -20158,9 +18712,7 @@
       <c r="E12" s="2">
         <v>5.16</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -20175,9 +18727,7 @@
       <c r="E13" s="2">
         <v>5.18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
@@ -20192,9 +18742,7 @@
       <c r="E14" s="2">
         <v>5.16</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
@@ -20209,9 +18757,7 @@
       <c r="E15" s="2">
         <v>5.16</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -20226,9 +18772,7 @@
       <c r="E16" s="2">
         <v>5.16</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
@@ -20243,9 +18787,7 @@
       <c r="E17" s="2">
         <v>5.16</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
@@ -20260,9 +18802,7 @@
       <c r="E18" s="2">
         <v>5.2</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
@@ -20277,9 +18817,7 @@
       <c r="E19" s="2">
         <v>5.2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
@@ -20294,9 +18832,7 @@
       <c r="E20" s="2">
         <v>5.16</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
@@ -20311,9 +18847,7 @@
       <c r="E21" s="2">
         <v>7.2</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
@@ -20328,9 +18862,7 @@
       <c r="E22" s="2">
         <v>7.4</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
@@ -20345,9 +18877,7 @@
       <c r="E23" s="2">
         <v>5.15</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
@@ -20362,9 +18892,7 @@
       <c r="E24" s="2">
         <v>5.2</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
@@ -20379,9 +18907,7 @@
       <c r="E25" s="2">
         <v>5.2</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
@@ -20396,9 +18922,7 @@
       <c r="E26" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
@@ -20413,9 +18937,7 @@
       <c r="E27" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
@@ -20430,9 +18952,7 @@
       <c r="E28" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
@@ -20447,9 +18967,7 @@
       <c r="E29" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
@@ -20464,9 +18982,7 @@
       <c r="E30" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
@@ -20481,9 +18997,7 @@
       <c r="E31" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20492,13 +19006,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"Cumple parcialmente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"No cumple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>"Cumple"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20524,8 +19038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BA3378-4197-4B5A-8570-BA09943DF13C}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20538,26 +19052,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20593,9 +19107,7 @@
       <c r="E5" s="2">
         <v>5.2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -20610,9 +19122,7 @@
       <c r="E6" s="2">
         <v>5.2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -20627,9 +19137,7 @@
       <c r="E7" s="2">
         <v>5.18</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
@@ -20644,9 +19152,7 @@
       <c r="E8" s="2">
         <v>5.15</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -20661,9 +19167,7 @@
       <c r="E9" s="91">
         <v>5.15</v>
       </c>
-      <c r="F9" s="92" t="s">
-        <v>32</v>
-      </c>
+      <c r="F9" s="92"/>
     </row>
     <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
@@ -20678,9 +19182,7 @@
       <c r="E10" s="91">
         <v>5.15</v>
       </c>
-      <c r="F10" s="92" t="s">
-        <v>34</v>
-      </c>
+      <c r="F10" s="92"/>
     </row>
     <row r="11" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
@@ -20695,9 +19197,7 @@
       <c r="E11" s="2">
         <v>5.18</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
@@ -20712,9 +19212,7 @@
       <c r="E12" s="2">
         <v>5.16</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -20729,9 +19227,7 @@
       <c r="E13" s="2">
         <v>5.15</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
@@ -20746,9 +19242,7 @@
       <c r="E14" s="2">
         <v>8.5</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
@@ -20763,9 +19257,7 @@
       <c r="E15" s="2">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -20780,9 +19272,7 @@
       <c r="E16" s="2">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
@@ -20797,9 +19287,7 @@
       <c r="E17" s="2">
         <v>8.31</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
@@ -20814,9 +19302,7 @@
       <c r="E18" s="2">
         <v>7.1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
@@ -20831,9 +19317,7 @@
       <c r="E19" s="2">
         <v>5.2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
@@ -20848,9 +19332,7 @@
       <c r="E20" s="2">
         <v>5.2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
@@ -20865,9 +19347,7 @@
       <c r="E21" s="2">
         <v>5.16</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
@@ -20882,9 +19362,7 @@
       <c r="E22" s="2">
         <v>7.2</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
@@ -20899,9 +19377,7 @@
       <c r="E23" s="2">
         <v>7.2</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
@@ -20916,9 +19392,7 @@
       <c r="E24" s="2">
         <v>7.2</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
@@ -20933,9 +19407,7 @@
       <c r="E25" s="2">
         <v>7.2</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
@@ -20950,9 +19422,7 @@
       <c r="E26" s="2">
         <v>5.2</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
@@ -20967,9 +19437,7 @@
       <c r="E27" s="2">
         <v>5.2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
@@ -20984,9 +19452,7 @@
       <c r="E28" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
@@ -21001,9 +19467,7 @@
       <c r="E29" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
@@ -21018,9 +19482,7 @@
       <c r="E30" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
@@ -21035,9 +19497,7 @@
       <c r="E31" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
@@ -21052,9 +19512,7 @@
       <c r="E32" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
@@ -21069,9 +19527,7 @@
       <c r="E33" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21080,13 +19536,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:F33">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"Cumple parcialmente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"No cumple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"Cumple"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21112,8 +19568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AD35FE-7785-458D-9711-00DEC883D8E1}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21126,26 +19582,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21181,9 +19637,7 @@
       <c r="E5" s="2">
         <v>5.2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -21198,9 +19652,7 @@
       <c r="E6" s="2">
         <v>5.2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -21215,9 +19667,7 @@
       <c r="E7" s="2">
         <v>5.15</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
@@ -21232,9 +19682,7 @@
       <c r="E8" s="24">
         <v>5.3</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -21249,9 +19697,7 @@
       <c r="E9" s="24">
         <v>8.5</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
@@ -21266,9 +19712,7 @@
       <c r="E10" s="2">
         <v>5.15</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
@@ -21281,9 +19725,7 @@
         <v>176</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
@@ -21298,9 +19740,7 @@
       <c r="E12" s="2">
         <v>5.17</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -21315,9 +19755,7 @@
       <c r="E13" s="2">
         <v>5.18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
@@ -21332,9 +19770,7 @@
       <c r="E14" s="2">
         <v>5.17</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
@@ -21349,9 +19785,7 @@
       <c r="E15" s="2">
         <v>5.15</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -21366,9 +19800,7 @@
       <c r="E16" s="2">
         <v>7.1</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
@@ -21383,9 +19815,7 @@
       <c r="E17" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
@@ -21400,9 +19830,7 @@
       <c r="E18" s="2">
         <v>8.4</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
@@ -21417,9 +19845,7 @@
       <c r="E19" s="24">
         <v>5.2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
@@ -21434,9 +19860,7 @@
       <c r="E20" s="24">
         <v>5.2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
@@ -21451,9 +19875,7 @@
       <c r="E21" s="24">
         <v>7.2</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
@@ -21468,9 +19890,7 @@
       <c r="E22" s="24">
         <v>7.2</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
@@ -21485,9 +19905,7 @@
       <c r="E23" s="24">
         <v>7.2</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
@@ -21502,9 +19920,7 @@
       <c r="E24" s="24">
         <v>7.4</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
@@ -21519,9 +19935,7 @@
       <c r="E25" s="24">
         <v>8.5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
@@ -21536,9 +19950,7 @@
       <c r="E26" s="2">
         <v>5.2</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
@@ -21553,9 +19965,7 @@
       <c r="E27" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
@@ -21570,9 +19980,7 @@
       <c r="E28" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
@@ -21585,9 +19993,7 @@
         <v>205</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
@@ -21602,9 +20008,7 @@
       <c r="E30" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21613,13 +20017,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:F30">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"Cumple parcialmente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"No cumple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>"Cumple"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21645,8 +20049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E108A5CB-C537-4655-99FA-CD2F4F1D72FE}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21658,26 +20062,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21713,9 +20117,7 @@
       <c r="E5" s="2">
         <v>5.2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -21730,9 +20132,7 @@
       <c r="E6" s="2">
         <v>5.2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -21747,9 +20147,7 @@
       <c r="E7" s="2">
         <v>5.18</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
@@ -21764,9 +20162,7 @@
       <c r="E8" s="2">
         <v>5.18</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -21781,9 +20177,7 @@
       <c r="E9" s="2">
         <v>5.15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
@@ -21798,9 +20192,7 @@
       <c r="E10" s="2">
         <v>5.18</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
@@ -21815,9 +20207,7 @@
       <c r="E11" s="2">
         <v>5.18</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
@@ -21832,9 +20222,7 @@
       <c r="E12" s="2">
         <v>5.18</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -21849,9 +20237,7 @@
       <c r="E13" s="2">
         <v>5.18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
@@ -21866,9 +20252,7 @@
       <c r="E14" s="2">
         <v>5.3</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
@@ -21883,9 +20267,7 @@
       <c r="E15" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -21900,9 +20282,7 @@
       <c r="E16" s="2">
         <v>8.4</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
@@ -21917,9 +20297,7 @@
       <c r="E17" s="2">
         <v>8.31</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
@@ -21934,9 +20312,7 @@
       <c r="E18" s="2">
         <v>5.2</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
@@ -21951,9 +20327,7 @@
       <c r="E19" s="2">
         <v>5.2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
@@ -21968,9 +20342,7 @@
       <c r="E20" s="2">
         <v>7.4</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
@@ -21985,9 +20357,7 @@
       <c r="E21" s="2">
         <v>7.4</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
@@ -22002,9 +20372,7 @@
       <c r="E22" s="2">
         <v>5.18</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
@@ -22019,9 +20387,7 @@
       <c r="E23" s="2">
         <v>5.18</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
@@ -22036,9 +20402,7 @@
       <c r="E24" s="2">
         <v>5.18</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
@@ -22053,9 +20417,7 @@
       <c r="E25" s="2">
         <v>7.2</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
@@ -22070,9 +20432,7 @@
       <c r="E26" s="2">
         <v>5.2</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
@@ -22087,9 +20447,7 @@
       <c r="E27" s="2">
         <v>5.2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
@@ -22104,9 +20462,7 @@
       <c r="E28" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
@@ -22121,9 +20477,7 @@
       <c r="E29" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
@@ -22138,9 +20492,7 @@
       <c r="E30" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
@@ -22155,9 +20507,7 @@
       <c r="E31" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
@@ -22172,9 +20522,7 @@
       <c r="E32" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22183,13 +20531,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:F32">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"Cumple parcialmente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"No cumple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Cumple"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22212,6 +20560,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3e8fa33-f11c-4432-b9aa-f669a142e5ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8dceb93e-2434-4a2d-9950-ee586c124d8b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B4690A5B055F5C409484550C3CDF1530" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d7474e99d73ad900a7c2e7df9a3823">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e8fa33-f11c-4432-b9aa-f669a142e5ce" xmlns:ns3="8dceb93e-2434-4a2d-9950-ee586c124d8b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21a22197c1f37d77da14d9d70acf3e32" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e8fa33-f11c-4432-b9aa-f669a142e5ce"/>
@@ -22400,27 +20768,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68BACD7B-8447-493C-BF6E-C56F6B779E95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e8fa33-f11c-4432-b9aa-f669a142e5ce"/>
+    <ds:schemaRef ds:uri="8dceb93e-2434-4a2d-9950-ee586c124d8b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3e8fa33-f11c-4432-b9aa-f669a142e5ce">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8dceb93e-2434-4a2d-9950-ee586c124d8b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE29674-FA7B-4C11-BF57-A50C5AA76FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E55D8DF-D3BE-41BE-8E95-979850F179B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22437,23 +20804,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE29674-FA7B-4C11-BF57-A50C5AA76FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68BACD7B-8447-493C-BF6E-C56F6B779E95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e8fa33-f11c-4432-b9aa-f669a142e5ce"/>
-    <ds:schemaRef ds:uri="8dceb93e-2434-4a2d-9950-ee586c124d8b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/herramienta.xlsx
+++ b/public/herramienta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Documentos\Proyectos\Frontend\pry20232028\diagnostic-tool\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEC9BB-98E3-4307-BF5E-7092356D7F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D81ED-B020-4ACA-918D-2E41515AF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caratula" sheetId="1" r:id="rId1"/>
@@ -13869,7 +13869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -17474,7 +17474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC1250-B59F-4A52-8196-CD13BECFF42C}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -17949,7 +17949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262A127-4DF6-4F4F-B8F9-B35F9ACD5893}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
@@ -18540,7 +18540,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/herramienta.xlsx
+++ b/public/herramienta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Documentos\Proyectos\Frontend\pry20232028\diagnostic-tool\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D81ED-B020-4ACA-918D-2E41515AF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E476B81F-7A28-4992-8E6B-7FC03D261ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="451">
   <si>
     <t xml:space="preserve">
 </t>
@@ -1478,6 +1478,36 @@
   </si>
   <si>
     <t>FASE</t>
+  </si>
+  <si>
+    <t>[0</t>
+  </si>
+  <si>
+    <t>0.2&gt;</t>
+  </si>
+  <si>
+    <t>[0.2</t>
+  </si>
+  <si>
+    <t>0.4&gt;</t>
+  </si>
+  <si>
+    <t>[0.4</t>
+  </si>
+  <si>
+    <t>0.6&gt;</t>
+  </si>
+  <si>
+    <t>[0.6</t>
+  </si>
+  <si>
+    <t>0.8&gt;</t>
+  </si>
+  <si>
+    <t>[0.8</t>
+  </si>
+  <si>
+    <t>1]</t>
   </si>
 </sst>
 </file>
@@ -2309,13 +2339,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15837,10 +15867,10 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B5" s="137">
+      <c r="B5" s="136">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="136" t="s">
         <v>378</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -15879,11 +15909,11 @@
         <v>INICIAL</v>
       </c>
       <c r="O5" s="46"/>
-      <c r="P5" s="135">
+      <c r="P5" s="137">
         <f>SUM(M5:M7)/3</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="136" t="str">
+      <c r="Q5" s="135" t="str">
         <f>IF(AND(P5&gt;=0.8,P5&lt;=1),"OPTIMIZADO",IF(AND(P5&gt;=0.6,P5&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P5&gt;=0.4,P5&lt;0.6),"DEFINIDO",IF(AND(P5&gt;=0.2,P5&lt;0.4),"ADMINISTRADO",IF(AND(P5&gt;=0,P5&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
@@ -15897,8 +15927,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
@@ -15935,12 +15965,12 @@
         <v>INICIAL</v>
       </c>
       <c r="O6" s="46"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="136"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="135"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
@@ -15977,8 +16007,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O7" s="46"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="136"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="135"/>
       <c r="S7" s="1"/>
       <c r="T7" s="59" t="s">
         <v>32</v>
@@ -16024,10 +16054,10 @@
       <c r="AA8" s="51"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="137">
+      <c r="B9" s="136">
         <v>2</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="136" t="s">
         <v>380</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -16066,11 +16096,11 @@
         <v>INICIAL</v>
       </c>
       <c r="O9" s="46"/>
-      <c r="P9" s="135">
+      <c r="P9" s="137">
         <f>SUM(M9:M11)/3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="136" t="str">
+      <c r="Q9" s="135" t="str">
         <f>IF(AND(P9&gt;=0.8,P9&lt;=1),"OPTIMIZADO",IF(AND(P9&gt;=0.6,P9&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P9&gt;=0.4,P9&lt;0.6),"DEFINIDO",IF(AND(P9&gt;=0.2,P9&lt;0.4),"ADMINISTRADO",IF(AND(P9&gt;=0,P9&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
@@ -16098,8 +16128,8 @@
       <c r="AA9" s="51"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
@@ -16136,8 +16166,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O10" s="46"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="135"/>
       <c r="S10" s="59" t="s">
         <v>87</v>
       </c>
@@ -16162,8 +16192,8 @@
       <c r="AA10" s="51"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="1" t="s">
         <v>87</v>
       </c>
@@ -16200,8 +16230,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O11" s="46"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="135"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="H12" s="97"/>
@@ -16212,10 +16242,10 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="137">
+      <c r="B13" s="136">
         <v>3</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="136" t="s">
         <v>381</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -16254,18 +16284,18 @@
         <v>INICIAL</v>
       </c>
       <c r="O13" s="46"/>
-      <c r="P13" s="135">
+      <c r="P13" s="137">
         <f>SUM(M13:M15)/3</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="136" t="str">
+      <c r="Q13" s="135" t="str">
         <f>IF(AND(P13&gt;=0.8,P13&lt;=1),"OPTIMIZADO",IF(AND(P13&gt;=0.6,P13&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P13&gt;=0.4,P13&lt;0.6),"DEFINIDO",IF(AND(P13&gt;=0.2,P13&lt;0.4),"ADMINISTRADO",IF(AND(P13&gt;=0,P13&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
@@ -16302,12 +16332,12 @@
         <v>INICIAL</v>
       </c>
       <c r="O14" s="46"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="135"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
@@ -16344,8 +16374,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O15" s="46"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="135"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="H16" s="97"/>
@@ -16356,10 +16386,10 @@
       <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="137">
+      <c r="B17" s="136">
         <v>4</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="136" t="s">
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -16398,18 +16428,18 @@
         <v>INICIAL</v>
       </c>
       <c r="O17" s="46"/>
-      <c r="P17" s="135">
+      <c r="P17" s="137">
         <f>SUM(M17:M19)/3</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="136" t="str">
+      <c r="Q17" s="135" t="str">
         <f>IF(AND(P17&gt;=0.8,P17&lt;=1),"OPTIMIZADO",IF(AND(P17&gt;=0.6,P17&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P17&gt;=0.4,P17&lt;0.6),"DEFINIDO",IF(AND(P17&gt;=0.2,P17&lt;0.4),"ADMINISTRADO",IF(AND(P17&gt;=0,P17&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
@@ -16446,12 +16476,12 @@
         <v>INICIAL</v>
       </c>
       <c r="O18" s="46"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="135"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
@@ -16488,8 +16518,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O19" s="46"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="135"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H20" s="97"/>
@@ -16500,10 +16530,10 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="137">
+      <c r="B21" s="136">
         <v>5</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="136" t="s">
         <v>383</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -16542,18 +16572,18 @@
         <v>INICIAL</v>
       </c>
       <c r="O21" s="46"/>
-      <c r="P21" s="135">
+      <c r="P21" s="137">
         <f>SUM(M21:M23)/3</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="136" t="str">
+      <c r="Q21" s="135" t="str">
         <f>IF(AND(P21&gt;=0.8,P21&lt;=1),"OPTIMIZADO",IF(AND(P21&gt;=0.6,P21&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P21&gt;=0.4,P21&lt;0.6),"DEFINIDO",IF(AND(P21&gt;=0.2,P21&lt;0.4),"ADMINISTRADO",IF(AND(P21&gt;=0,P21&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
@@ -16590,15 +16620,15 @@
         <v>INICIAL</v>
       </c>
       <c r="O22" s="46"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="135"/>
       <c r="S22" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
@@ -16635,8 +16665,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O23" s="46"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="135"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H24" s="97"/>
@@ -16647,10 +16677,10 @@
       <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="137">
+      <c r="B25" s="136">
         <v>6</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="136" t="s">
         <v>385</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -16689,18 +16719,18 @@
         <v>INICIAL</v>
       </c>
       <c r="O25" s="46"/>
-      <c r="P25" s="135">
+      <c r="P25" s="137">
         <f>SUM(M25:M27)/3</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="136" t="str">
+      <c r="Q25" s="135" t="str">
         <f>IF(AND(P25&gt;=0.8,P25&lt;=1),"OPTIMIZADO",IF(AND(P25&gt;=0.6,P25&lt;0.8),"CUANTITATIVAMENTE GESTIONADO",IF(AND(P25&gt;=0.4,P25&lt;0.6),"DEFINIDO",IF(AND(P25&gt;=0.2,P25&lt;0.4),"ADMINISTRADO",IF(AND(P25&gt;=0,P25&lt;0.2),"INICIAL","Ingrese un valor válido")))))</f>
         <v>INICIAL</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
@@ -16737,12 +16767,12 @@
         <v>INICIAL</v>
       </c>
       <c r="O26" s="46"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="135"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="1" t="s">
         <v>87</v>
       </c>
@@ -16779,8 +16809,8 @@
         <v>INICIAL</v>
       </c>
       <c r="O27" s="46"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="135"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="M28" s="45"/>
@@ -16797,11 +16827,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="P21:P23"/>
     <mergeCell ref="Q25:Q27"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
@@ -16818,11 +16848,11 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="P25:P27"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="Q21:Q23"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H27">
     <cfRule type="iconSet" priority="41">
@@ -17949,8 +17979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262A127-4DF6-4F4F-B8F9-B35F9ACD5893}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="E6:F6"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18023,11 +18053,11 @@
       <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="42">
-        <v>0</v>
-      </c>
-      <c r="F6" s="42">
-        <v>0.2</v>
+      <c r="E6" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
@@ -18040,11 +18070,11 @@
       <c r="D7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="42">
-        <v>0.4</v>
+      <c r="E7" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
@@ -18057,11 +18087,11 @@
       <c r="D8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0.6</v>
+      <c r="E8" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
@@ -18074,11 +18104,11 @@
       <c r="D9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.8</v>
+      <c r="E9" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="58" x14ac:dyDescent="0.35">
@@ -18091,11 +18121,11 @@
       <c r="D10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="42">
-        <v>1</v>
+      <c r="E10" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
@@ -20560,26 +20590,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3e8fa33-f11c-4432-b9aa-f669a142e5ce">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8dceb93e-2434-4a2d-9950-ee586c124d8b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B4690A5B055F5C409484550C3CDF1530" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d7474e99d73ad900a7c2e7df9a3823">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e8fa33-f11c-4432-b9aa-f669a142e5ce" xmlns:ns3="8dceb93e-2434-4a2d-9950-ee586c124d8b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21a22197c1f37d77da14d9d70acf3e32" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e8fa33-f11c-4432-b9aa-f669a142e5ce"/>
@@ -20768,26 +20778,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68BACD7B-8447-493C-BF6E-C56F6B779E95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e8fa33-f11c-4432-b9aa-f669a142e5ce"/>
-    <ds:schemaRef ds:uri="8dceb93e-2434-4a2d-9950-ee586c124d8b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE29674-FA7B-4C11-BF57-A50C5AA76FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3e8fa33-f11c-4432-b9aa-f669a142e5ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8dceb93e-2434-4a2d-9950-ee586c124d8b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E55D8DF-D3BE-41BE-8E95-979850F179B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20804,4 +20815,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE29674-FA7B-4C11-BF57-A50C5AA76FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68BACD7B-8447-493C-BF6E-C56F6B779E95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e8fa33-f11c-4432-b9aa-f669a142e5ce"/>
+    <ds:schemaRef ds:uri="8dceb93e-2434-4a2d-9950-ee586c124d8b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>